--- a/biology/Biochimie/Tim_Mitchison/Tim_Mitchison.xlsx
+++ b/biology/Biochimie/Tim_Mitchison/Tim_Mitchison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Timothy John Mitchison est biologiste cellulaire et biologiste des systèmes et professeur Hasib Sabbagh de biologie des systèmes à la Harvard Medical School aux États-Unis [1],[2],[3]. Il est connu pour sa découverte, avec Marc Kirschner, de l'instabilité dynamique dans les microtubules [4],[5], pour les études du mécanisme de la division cellulaire, et pour ses contributions à la biologie chimique [6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Timothy John Mitchison est biologiste cellulaire et biologiste des systèmes et professeur Hasib Sabbagh de biologie des systèmes à la Harvard Medical School aux États-Unis . Il est connu pour sa découverte, avec Marc Kirschner, de l'instabilité dynamique dans les microtubules  pour les études du mécanisme de la division cellulaire, et pour ses contributions à la biologie chimique .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitchison fait ses études à la Haberdashers' Aske's Boys' School et obtient son baccalauréat ès arts en biochimie à l'Université d'Oxford où il est étudiant de premier cycle au Merton College d'Oxford de 1976 à 1979. Il part à l'Université de Californie à San Francisco (UCSF) en 1979 pour son doctorat qui est supervisé par Marc Kirschner et étudie l'instabilité dynamique des Microtubules [7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitchison fait ses études à la Haberdashers' Aske's Boys' School et obtient son baccalauréat ès arts en biochimie à l'Université d'Oxford où il est étudiant de premier cycle au Merton College d'Oxford de 1976 à 1979. Il part à l'Université de Californie à San Francisco (UCSF) en 1979 pour son doctorat qui est supervisé par Marc Kirschner et étudie l'instabilité dynamique des Microtubules .
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitchison retourne au Royaume-Uni pour des recherches postdoctorales au National Institute for Medical Research (NIMR) de Londres. En 1988, il retourne à San Francisco où il est nommé professeur assistant à l'UCSF [8]. En 1994, il écrit un article d'opinion pour la revue Chemistry &amp; Biology intitulé "Vers une génétique pharmacologique" qui contribue à lancer le domaine de la génétique chimique [6]. En 1997, il part à l'Université Harvard pour devenir codirecteur de l'Institut de chimie et de biologie cellulaire de la Harvard Medical School [8], où il est le pionnier du dépistage basé sur le phénotype [9], en découvrant la petite molécule monastrol - la première petite molécule inhibiteur de la Mitose qui ne cible pas la tubuline. Il démontre que le monastrol inhibe la kinésine-5, une protéine motrice. En 2003, il devient vice-président du nouveau département de biologie des systèmes, présidé par Marc Kirschner [10],[11]. Il travaille sur des aspects de la biologie mésoéchelle [12] dont l'auto-organisation du cytosquelette [13],[14] et du cytoplasme [15],[16]. Il collabore étroitement avec Christine Field sur le mécanisme de la cytokinèse [17],[18],[19].
-Mitchison est élu membre de la Royal Society (FRS) en 1997 pour ses "contributions substantielles à l'amélioration des connaissances naturelles" [20] et est président de l'American Society for Cell Biology (ASCB) en 2010 [21]. Il est élu membre de l'Académie nationale des sciences des États-Unis en 2014 [8] et prononce la conférence Keith R. Porter en 2013.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitchison retourne au Royaume-Uni pour des recherches postdoctorales au National Institute for Medical Research (NIMR) de Londres. En 1988, il retourne à San Francisco où il est nommé professeur assistant à l'UCSF . En 1994, il écrit un article d'opinion pour la revue Chemistry &amp; Biology intitulé "Vers une génétique pharmacologique" qui contribue à lancer le domaine de la génétique chimique . En 1997, il part à l'Université Harvard pour devenir codirecteur de l'Institut de chimie et de biologie cellulaire de la Harvard Medical School , où il est le pionnier du dépistage basé sur le phénotype , en découvrant la petite molécule monastrol - la première petite molécule inhibiteur de la Mitose qui ne cible pas la tubuline. Il démontre que le monastrol inhibe la kinésine-5, une protéine motrice. En 2003, il devient vice-président du nouveau département de biologie des systèmes, présidé par Marc Kirschner ,. Il travaille sur des aspects de la biologie mésoéchelle  dont l'auto-organisation du cytosquelette , et du cytoplasme ,. Il collabore étroitement avec Christine Field sur le mécanisme de la cytokinèse .
+Mitchison est élu membre de la Royal Society (FRS) en 1997 pour ses "contributions substantielles à l'amélioration des connaissances naturelles"  et est président de l'American Society for Cell Biology (ASCB) en 2010 . Il est élu membre de l'Académie nationale des sciences des États-Unis en 2014  et prononce la conférence Keith R. Porter en 2013.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitchison est marié à la scientifique Christine M. Field avec qui il adopte deux enfants [2]. Mitchison vient d'une famille de biologistes distingués : il est le fils d'Avrion Mitchison[1], le neveu de Denis Mitchison et Murdoch Mitchison[1], le petit-neveu de John Burdon Sanderson Haldane [1] et l'arrière-petit-fils de John Scott Haldane. Il est le petit-fils de l'homme politique Dick Mitchison et de l'écrivaine Naomi Mitchison (née Haldane) [22]. Sa sœur cadette Hannah M. Mitchison est également biologiste [23].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitchison est marié à la scientifique Christine M. Field avec qui il adopte deux enfants . Mitchison vient d'une famille de biologistes distingués : il est le fils d'Avrion Mitchison, le neveu de Denis Mitchison et Murdoch Mitchison, le petit-neveu de John Burdon Sanderson Haldane  et l'arrière-petit-fils de John Scott Haldane. Il est le petit-fils de l'homme politique Dick Mitchison et de l'écrivaine Naomi Mitchison (née Haldane) . Sa sœur cadette Hannah M. Mitchison est également biologiste .
 </t>
         </is>
       </c>
